--- a/v4/example/xlsx/Item.xlsx
+++ b/v4/example/xlsx/Item.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17940"/>
+    <workbookView windowWidth="18525" windowHeight="17790"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>Id</t>
   </si>
@@ -34,7 +34,10 @@
     <t>string</t>
   </si>
   <si>
-    <t>MakeIndex;</t>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>MakeIndex</t>
   </si>
   <si>
     <t>描述</t>
@@ -1051,7 +1054,7 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1088,7 +1091,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E2"/>
       <c r="F2"/>
@@ -1100,7 +1103,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -1116,13 +1119,13 @@
         <v>0</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
@@ -1132,11 +1135,11 @@
         <v>5001</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -1146,11 +1149,11 @@
         <v>5002</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
@@ -1160,11 +1163,11 @@
         <v>5003</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
